--- a/Producto/Web/Casos de prueba/Ejecuciones/2.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ejecucion 16-09" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Ejecucion 20-10" sheetId="8" r:id="rId5"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>nro</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Se muestra el mensaje "La playa se modificó exitosamente"</t>
   </si>
   <si>
-    <t>Ignacio Frigerio [autor]</t>
-  </si>
-  <si>
     <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
   </si>
   <si>
@@ -109,13 +106,58 @@
   </si>
   <si>
     <t>Se muestra el mensaje</t>
+  </si>
+  <si>
+    <t>Marcos Barrera [autor]</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>Leonel Romero</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 16/09</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 25/09</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 15/10</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 20/10</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 02/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -253,22 +295,39 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF548DD4"/>
       </left>
       <right style="medium">
-        <color rgb="FF4BACC6"/>
+        <color rgb="FF548DD4"/>
       </right>
-      <top style="medium">
-        <color rgb="FF548DD4"/>
+      <top style="thin">
+        <color theme="3"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -283,9 +342,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +362,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,6 +380,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +463,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,6 +498,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,37 +674,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41898</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" thickBot="1">
+    <row r="4" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -658,19 +728,19 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="39" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -680,11 +750,11 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -694,19 +764,19 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -714,11 +784,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.5">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -728,7 +798,7 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -739,37 +809,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41907</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" thickBot="1">
+    <row r="4" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -793,19 +863,19 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -815,9 +885,9 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -827,19 +897,19 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -847,11 +917,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="51">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -861,8 +931,8 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>28</v>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -874,37 +944,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41914</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" thickBot="1">
+    <row r="4" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -928,19 +998,19 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -950,9 +1020,9 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -962,19 +1032,19 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -982,11 +1052,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="51">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -996,8 +1066,8 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>29</v>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1009,37 +1079,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" thickBot="1">
+    <row r="4" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1063,19 +1133,19 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1085,9 +1155,9 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1097,19 +1167,19 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1117,11 +1187,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="51">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1131,8 +1201,8 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>28</v>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1144,37 +1214,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41932</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" thickBot="1">
+    <row r="4" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1198,19 +1268,19 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1220,9 +1290,9 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1232,19 +1302,19 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1252,11 +1322,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="51">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1266,8 +1336,8 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>29</v>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1279,14 +1349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1294,7 +1364,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1322,10 +1392,112 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41795</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41898</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41907</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41914</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5">
+        <v>41927</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13">
+        <v>41932</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
